--- a/biology/Botanique/Vandenboschia_radicans/Vandenboschia_radicans.xlsx
+++ b/biology/Botanique/Vandenboschia_radicans/Vandenboschia_radicans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vandenboschia radicans est une fougère de la famille des Hyménophyllacées.
 Nom chinois : 南海瓶蕨
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette espèce présente les caractéristiques suivantes :
 son rhizome est long, rampant, couvert de poils noirs ;
@@ -546,7 +560,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans presque toutes les zones tropicales : Amérique (Bolivie, Brésil, équateur, Guatemala, Mexique, Nicaragua, Pérou et Caraïbe, dont Guyane et Antilles), Afrique (Kenya, Madagascar), Océanie et Asie (Chine, Japon).
 Il s'agit d'une fougère principalement épiphyte des troncs d'arbre.
@@ -578,15 +594,17 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Vandenboschia radicans est l'espèce type du sous-genre Vandenboschia ainsi que du genre Vandeboschia.
 Cette espèce a connu de nombreux reclassements. Elle est décrite une première fois en 1799 par Johannes Hedwig sous le nom de Trichomanes scandens, homonyme de Trichomanes scandens L.
 En 1801, Olof Peter Swartz la renomme Trichomanes radicans pour lever l'homonymie.
-En 1938, Edwin Bingham Copeland la reclasse dans le genre Vandenboschia qu'il vient de créer, son genre actuel[1].
-En 1974, Conrad Vernon Morton la place dans la section Lacosteopsis du sous-genre Trichomanes du genre Trichomanes[2].
-En 1985, Kunio Iwatsuki la reclasse dans le genre Crepidomanes : Crepidomanes radicans (Sw.) K.Iwats.[3]
-Enfin, en 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito confirment le classement dans le genre Vandenboschia par Edwin Bingham Copeland et la placent dans le sous-genre Vandenboschia comme espèce représentative de ce sous-genre [4].
+En 1938, Edwin Bingham Copeland la reclasse dans le genre Vandenboschia qu'il vient de créer, son genre actuel.
+En 1974, Conrad Vernon Morton la place dans la section Lacosteopsis du sous-genre Trichomanes du genre Trichomanes.
+En 1985, Kunio Iwatsuki la reclasse dans le genre Crepidomanes : Crepidomanes radicans (Sw.) K.Iwats.
+Enfin, en 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito confirment le classement dans le genre Vandenboschia par Edwin Bingham Copeland et la placent dans le sous-genre Vandenboschia comme espèce représentative de ce sous-genre .
 Elle a de ce fait et de son polymorphisme une synonymie assez importante :
 Crepidomanes radicans (Sw.) K.Iwats. ;
 Didymoglossum alatum Desv. ;
